--- a/data/trans_dic/LAWTONB_2R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R3-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2734220343208111</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3843233949906201</v>
+        <v>0.38432339499062</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1738889801852443</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1065952966319438</v>
+        <v>0.1096506225162311</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1920844167170631</v>
+        <v>0.1907061909441269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.165393103298343</v>
+        <v>0.1609284298432141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2205853390170819</v>
+        <v>0.2197549067496326</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1620595779361231</v>
+        <v>0.1653852796345736</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2459936716108315</v>
+        <v>0.2456642489607004</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.234634121988114</v>
+        <v>0.2362403794145107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3507185427674718</v>
+        <v>0.3537122043417695</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1508202563948376</v>
+        <v>0.149343027786856</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2352461857182634</v>
+        <v>0.2338150298370653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2143432295626212</v>
+        <v>0.2138039922515246</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3139437737000628</v>
+        <v>0.3135085025407022</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1752957645653034</v>
+        <v>0.1793200663333025</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2810884683202937</v>
+        <v>0.2773120650762722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2376627817674504</v>
+        <v>0.2402872665432088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3025298038027914</v>
+        <v>0.3015431919492885</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2271419456959566</v>
+        <v>0.2317964934140188</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3174686396623667</v>
+        <v>0.3175889297687683</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3180985223486989</v>
+        <v>0.3176999386570157</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.412654266487066</v>
+        <v>0.4155488672580038</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2003812934959058</v>
+        <v>0.1988933557311132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2929880928640918</v>
+        <v>0.290310046751118</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2749154077604994</v>
+        <v>0.2737806812180865</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3667465440221207</v>
+        <v>0.3671728639518346</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1113391358240337</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.122650382904153</v>
+        <v>0.1226503829041531</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05918841716772635</v>
+        <v>0.06103920350755672</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08223407680240392</v>
+        <v>0.07828411917504347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04340980039386136</v>
+        <v>0.04329672317376115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07430146683512005</v>
+        <v>0.0765032343305844</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05513918330081951</v>
+        <v>0.05267528488705565</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05589390029124742</v>
+        <v>0.05302374975339007</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09492965023692085</v>
+        <v>0.09796484378996746</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1179824498697528</v>
+        <v>0.1158594930959343</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07088849952553716</v>
+        <v>0.07210188783437076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08347854208242582</v>
+        <v>0.08501092076593392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07909399978995386</v>
+        <v>0.08042112061859036</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1032748500631913</v>
+        <v>0.10357070521272</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1919477229900782</v>
+        <v>0.1961732465792313</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2372587437384595</v>
+        <v>0.2210871629238772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1228847361192744</v>
+        <v>0.1182592373161179</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1317640883828209</v>
+        <v>0.1360343955548968</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2311809732984434</v>
+        <v>0.2376937296685076</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2105138402628121</v>
+        <v>0.2110883161511465</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2184539462212442</v>
+        <v>0.2167798763587797</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1770794997652667</v>
+        <v>0.1791146567868152</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1736554915561098</v>
+        <v>0.1801637136881521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1831221617967911</v>
+        <v>0.1925851266475848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1460207382534437</v>
+        <v>0.1500366243133902</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1452605377648405</v>
+        <v>0.1459876846268033</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1075727511649343</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09749112292078856</v>
+        <v>0.09749112292078854</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08684944202929616</v>
@@ -969,7 +969,7 @@
         <v>0.1015836258938589</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07828293018423309</v>
+        <v>0.0782829301842331</v>
       </c>
     </row>
     <row r="11">
@@ -986,34 +986,34 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02173284303097456</v>
+        <v>0.03649432353040231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03331968557721317</v>
+        <v>0.03211313642829985</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03259384734101865</v>
+        <v>0.03247575962485568</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04350604454880208</v>
+        <v>0.04494968908933143</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03050583068121799</v>
+        <v>0.03086783359947991</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05745188911840888</v>
+        <v>0.0551484859832863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03038691507941839</v>
+        <v>0.03023558283919359</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04128701340781653</v>
+        <v>0.04081517193110915</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04573591432115938</v>
+        <v>0.04661626916145158</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05040691337301416</v>
+        <v>0.0501739992848022</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2157125062799629</v>
+        <v>0.2042387363299184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2275192412363409</v>
+        <v>0.2496171206916632</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2204824729845636</v>
+        <v>0.2448186688954535</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1222823306547845</v>
+        <v>0.117726965654307</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3191017330800304</v>
+        <v>0.2942801055691313</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3603101526877457</v>
+        <v>0.3661207559904662</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2871533792333615</v>
+        <v>0.3051193153617177</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1560231797878761</v>
+        <v>0.1542730703408706</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.190358695179206</v>
+        <v>0.1903607610317656</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2364748688281829</v>
+        <v>0.2328246966884542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2064465916563749</v>
+        <v>0.2088930718055416</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1128005586902761</v>
+        <v>0.1102590063852672</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2361179116957457</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2840870775566253</v>
+        <v>0.2840870775566254</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1615335818302416</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1243961058489984</v>
+        <v>0.1245345975803055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1381600168385299</v>
+        <v>0.139128535174174</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2268838232056353</v>
+        <v>0.2278853111289095</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2045292211256312</v>
+        <v>0.2043456469346522</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2620676337970055</v>
+        <v>0.2599643318939886</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2142048406734569</v>
+        <v>0.2086850067415737</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1754113409635867</v>
+        <v>0.1772484027575568</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2131276655220722</v>
+        <v>0.2137450854179338</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.180337601634049</v>
+        <v>0.1787475953136772</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1837865068791756</v>
+        <v>0.1846637156234997</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2920465441500846</v>
+        <v>0.2916394135433391</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2724738573923666</v>
+        <v>0.2704635843039859</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.307926972987806</v>
+        <v>0.3065380516534236</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2626867060331703</v>
+        <v>0.2603749081629369</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2220781201030709</v>
+        <v>0.220797185314713</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2468687097502432</v>
+        <v>0.2455850095402021</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>39780</v>
+        <v>40920</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>79599</v>
+        <v>79028</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>58533</v>
+        <v>56953</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>63163</v>
+        <v>62925</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>95250</v>
+        <v>97205</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>156094</v>
+        <v>155885</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>130165</v>
+        <v>131056</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>187843</v>
+        <v>189447</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>144929</v>
+        <v>143509</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>246760</v>
+        <v>245258</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>194765</v>
+        <v>194275</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>258042</v>
+        <v>257685</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65418</v>
+        <v>66920</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>116482</v>
+        <v>114918</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84109</v>
+        <v>85038</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>86627</v>
+        <v>86344</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>133502</v>
+        <v>136238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>201448</v>
+        <v>201524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>176467</v>
+        <v>176246</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>221016</v>
+        <v>222566</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>192554</v>
+        <v>191124</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>307328</v>
+        <v>304518</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>249804</v>
+        <v>248773</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>301443</v>
+        <v>301793</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5213</v>
+        <v>5377</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9758</v>
+        <v>9290</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8358</v>
+        <v>8336</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22525</v>
+        <v>23192</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3430</v>
+        <v>3277</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4643</v>
+        <v>4405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>17854</v>
+        <v>18425</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32528</v>
+        <v>31943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10654</v>
+        <v>10837</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16841</v>
+        <v>17150</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>30104</v>
+        <v>30609</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>59782</v>
+        <v>59953</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16907</v>
+        <v>17280</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28154</v>
+        <v>26235</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23659</v>
+        <v>22769</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>39945</v>
+        <v>41240</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14382</v>
+        <v>14787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>17488</v>
+        <v>17536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41086</v>
+        <v>40771</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48822</v>
+        <v>49383</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>26100</v>
+        <v>27078</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>36943</v>
+        <v>38852</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>55576</v>
+        <v>57105</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>84086</v>
+        <v>84507</v>
       </c>
     </row>
     <row r="12">
@@ -1829,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>913</v>
+        <v>1534</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3902</v>
+        <v>3761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4760</v>
+        <v>4569</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2016</v>
+        <v>1993</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3462</v>
+        <v>3529</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10080</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8886</v>
+        <v>8413</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6046</v>
+        <v>6634</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9267</v>
+        <v>10289</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14321</v>
+        <v>13788</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8578</v>
+        <v>7911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8015</v>
+        <v>8145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9670</v>
+        <v>10275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12927</v>
+        <v>12782</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>12959</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11545</v>
+        <v>11367</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15629</v>
+        <v>15814</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22557</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>73203</v>
+        <v>73284</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>97626</v>
+        <v>98311</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>167863</v>
+        <v>168604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>158818</v>
+        <v>158675</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>234329</v>
+        <v>232449</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>278360</v>
+        <v>271187</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>239431</v>
+        <v>241938</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>341169</v>
+        <v>342157</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>106122</v>
+        <v>105186</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>129867</v>
+        <v>130487</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>216075</v>
+        <v>215774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>211577</v>
+        <v>210016</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>275335</v>
+        <v>274093</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>341362</v>
+        <v>338358</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>303130</v>
+        <v>301381</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>395181</v>
+        <v>393126</v>
       </c>
     </row>
     <row r="20">
